--- a/Section 4/31. How to Create Dynamic Names in Excel Spreadsheets/Dynamic-Naming-Unsolved.xlsx
+++ b/Section 4/31. How to Create Dynamic Names in Excel Spreadsheets/Dynamic-Naming-Unsolved.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NewPC\Desktop\Courses\Video creating\The Complete Financial Analyst Course\Resources\3. Useful Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data_science\udemy_economics\Section 4\31. How to Create Dynamic Names in Excel Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7F27EF-19C4-4BEE-BAB1-FF6F937248FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic naming" sheetId="1" r:id="rId1"/>
@@ -25,22 +26,33 @@
     <definedName name="Sales13">'[1]Naming ranges'!$D$4:$D$7</definedName>
     <definedName name="try">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -381,8 +393,8 @@
     <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="_TableHead" xfId="3"/>
-    <cellStyle name="_TableSuperHead" xfId="2"/>
+    <cellStyle name="_TableHead" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="_TableSuperHead" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -400,7 +412,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Index --&gt;"/>
@@ -773,12 +785,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="B1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -811,7 +823,10 @@
       <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="str">
+        <f>"P&amp;L: "&amp;C4</f>
+        <v>P&amp;L: Google</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6" t="s">
